--- a/storage/app/xlsx/seed_cidades_se.xlsx
+++ b/storage/app/xlsx/seed_cidades_se.xlsx
@@ -23,7 +23,7 @@
     <t>AMPARENSE</t>
   </si>
   <si>
-    <t>11c28bcf-29c2-4706-9cc5-ac11bc2c132a</t>
+    <t>28cb1372-dc21-4ab9-8aea-570d35af9bdf</t>
   </si>
   <si>
     <t>AQUIDABÃ</t>

--- a/storage/app/xlsx/seed_cidades_se.xlsx
+++ b/storage/app/xlsx/seed_cidades_se.xlsx
@@ -23,7 +23,7 @@
     <t>AMPARENSE</t>
   </si>
   <si>
-    <t>28cb1372-dc21-4ab9-8aea-570d35af9bdf</t>
+    <t>e693e826-8b5e-4c11-997e-250f836355e4</t>
   </si>
   <si>
     <t>AQUIDABÃ</t>

--- a/storage/app/xlsx/seed_cidades_se.xlsx
+++ b/storage/app/xlsx/seed_cidades_se.xlsx
@@ -23,7 +23,7 @@
     <t>AMPARENSE</t>
   </si>
   <si>
-    <t>e693e826-8b5e-4c11-997e-250f836355e4</t>
+    <t>a5962774-b373-4b14-9f06-ae1e90108ae5</t>
   </si>
   <si>
     <t>AQUIDABÃ</t>

--- a/storage/app/xlsx/seed_cidades_se.xlsx
+++ b/storage/app/xlsx/seed_cidades_se.xlsx
@@ -23,7 +23,7 @@
     <t>AMPARENSE</t>
   </si>
   <si>
-    <t>a5962774-b373-4b14-9f06-ae1e90108ae5</t>
+    <t>46db331b-76c2-4f50-a6b7-3ccad500dda0</t>
   </si>
   <si>
     <t>AQUIDABÃ</t>

--- a/storage/app/xlsx/seed_cidades_se.xlsx
+++ b/storage/app/xlsx/seed_cidades_se.xlsx
@@ -23,7 +23,7 @@
     <t>AMPARENSE</t>
   </si>
   <si>
-    <t>46db331b-76c2-4f50-a6b7-3ccad500dda0</t>
+    <t>a479078f-4368-4467-9a76-3ee7b73b245e</t>
   </si>
   <si>
     <t>AQUIDABÃ</t>

--- a/storage/app/xlsx/seed_cidades_se.xlsx
+++ b/storage/app/xlsx/seed_cidades_se.xlsx
@@ -23,7 +23,7 @@
     <t>AMPARENSE</t>
   </si>
   <si>
-    <t>a479078f-4368-4467-9a76-3ee7b73b245e</t>
+    <t>82999c07-9136-430a-8008-39ddf94c590e</t>
   </si>
   <si>
     <t>AQUIDABÃ</t>
